--- a/BOM/BOM_ArmBoardV2.xlsx
+++ b/BOM/BOM_ArmBoardV2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyrel\rover-hardware\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EB4E928-AF42-41AD-B59F-9D60D4ECF562}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BB2413-10EF-42F5-9D71-E8825571E45C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="4485" xr2:uid="{A13FA1B1-CE69-405D-A7F3-B8E1E5C19ED9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Manufacturer Number</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>USB3.0 A Stacked Right Angle</t>
-  </si>
-  <si>
-    <t>In stock, ordering more</t>
   </si>
   <si>
     <t>Molex</t>
@@ -601,7 +598,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,7 +704,7 @@
         <v>2.59</v>
       </c>
       <c r="G4" s="11">
-        <f t="shared" ref="G4:G43" si="0">F4*E4</f>
+        <f t="shared" ref="G4:G9" si="0">F4*E4</f>
         <v>2.59</v>
       </c>
       <c r="H4" s="13"/>
@@ -756,7 +753,7 @@
         <v>484060003</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>6</v>
@@ -775,22 +772,20 @@
         <v>6.18</v>
       </c>
       <c r="H7" s="13"/>
-      <c r="I7" s="15" t="s">
-        <v>23</v>
-      </c>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="6">
         <v>1</v>
@@ -802,21 +797,21 @@
         <f t="shared" si="0"/>
         <v>0.43</v>
       </c>
-      <c r="H8" s="15"/>
+      <c r="H8" s="13"/>
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="11">
         <v>1</v>
@@ -828,7 +823,7 @@
         <f t="shared" si="0"/>
         <v>25.2</v>
       </c>
-      <c r="H9" s="15"/>
+      <c r="H9" s="13"/>
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
